--- a/data/trans_dic/P1806_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.02484898990866562</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06908101727783295</v>
+        <v>0.06908101727783296</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05080240597535303</v>
+        <v>0.05080240597535302</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0149743735950904</v>
+        <v>0.01618092769987776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05639488956134684</v>
+        <v>0.05593790811348791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04230501022801401</v>
+        <v>0.0424905109367042</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03999209108398256</v>
+        <v>0.03932010789912998</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08426565368196527</v>
+        <v>0.08359312765826835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06034956667141474</v>
+        <v>0.06034048417359312</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01458607135022224</v>
+        <v>0.01431292046329472</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03434755646938605</v>
+        <v>0.03407918228241433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02557083875534127</v>
+        <v>0.02551479408256792</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02792226647425785</v>
+        <v>0.02714456824678261</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04979840893246294</v>
+        <v>0.04918769910471626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03513524052782355</v>
+        <v>0.03580929886376402</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.06555049929860776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04892754371093097</v>
+        <v>0.04892754371093096</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02038400826472889</v>
+        <v>0.02005842599824293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05125303047863327</v>
+        <v>0.05318625476311904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04001780139219209</v>
+        <v>0.03961618068900543</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0463902083835344</v>
+        <v>0.04664806329048609</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08255007453684723</v>
+        <v>0.08192171566453525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06021520352143277</v>
+        <v>0.06065164928534961</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.05190967622260875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03790758818013476</v>
+        <v>0.03790758818013477</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01849683386435539</v>
+        <v>0.01815462945842101</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04587114259183991</v>
+        <v>0.04630317224302199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03401001151268569</v>
+        <v>0.03420791546999467</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.029325511795086</v>
+        <v>0.02866648396645217</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05799386564930664</v>
+        <v>0.05834865329770354</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04204597962572298</v>
+        <v>0.04183964675840366</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8663</v>
+        <v>9361</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46325</v>
+        <v>45950</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59226</v>
+        <v>59485</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23137</v>
+        <v>22748</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69219</v>
+        <v>68667</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84488</v>
+        <v>84475</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32535</v>
+        <v>31926</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>74558</v>
+        <v>73976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>112544</v>
+        <v>112298</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62282</v>
+        <v>60548</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108098</v>
+        <v>106772</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>154640</v>
+        <v>157607</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14505</v>
+        <v>14273</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37665</v>
+        <v>39085</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>57884</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33011</v>
+        <v>33194</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60664</v>
+        <v>60202</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87099</v>
+        <v>87730</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>65121</v>
+        <v>63917</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>170963</v>
+        <v>172573</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>246495</v>
+        <v>247929</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103246</v>
+        <v>100926</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>216145</v>
+        <v>217467</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>304737</v>
+        <v>303242</v>
       </c>
     </row>
     <row r="20">
